--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17402.9737827698</v>
+        <v>-19290.55529917197</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>315.1385694388413</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.28399007890627</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>101.4850921198535</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>252.6255656050526</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.2722027231271</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>78.88684406884218</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>317.984268023407</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>369.7983081316362</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>63.63976260651663</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>91.61923009959733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>8.570380610206279</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>87.60189326340819</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>73.95273020922983</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>212.4198423655579</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>110.0251664512549</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>90.13535865049965</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>140.1068014541061</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>25.3743380724142</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>76.56542964295289</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>52.52952772544717</v>
       </c>
       <c r="C31" t="n">
-        <v>78.67531269948152</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571478</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523559</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692892</v>
       </c>
       <c r="F34" t="n">
         <v>77.28915789329058</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3436,7 +3436,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2348.677818127306</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1995.909162857192</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.909162857192</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.909162857192</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>202.1097003136882</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>202.1097003136882</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>202.1097003136882</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>202.1097003136882</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2035.589960916693</v>
+        <v>1507.089911220684</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1507.089911220684</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1148.824212613934</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1148.824212613934</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>737.8383078243262</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>319.8744997225131</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>2035.589960916693</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2035.589960916693</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>648.4453033288158</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>648.4453033288158</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691493</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691493</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1332.357248852006</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>1332.357248852006</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>1332.357248852006</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>946.5689962537617</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.957088916128</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1718.957088916128</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>606.1673881917762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.3743239205529</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799343</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471171</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1410.429509685771</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1410.429509685771</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>1121.01233964881</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X13" t="n">
-        <v>893.0227887507926</v>
+        <v>905.1671280158238</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.0227887507926</v>
+        <v>684.3745488722936</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,13 +5297,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5361,19 +5361,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>807.0580565471716</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C16" t="n">
-        <v>638.1218736192648</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D16" t="n">
-        <v>488.005234206929</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>340.0921406245359</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1284.350773218955</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1284.350773218955</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.499100520942</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.7065213774114</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.4651278373165</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C19" t="n">
-        <v>376.5289449094096</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="D19" t="n">
-        <v>376.5289449094096</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="E19" t="n">
-        <v>376.5289449094096</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>356.4382299591518</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>188.2629082789724</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>188.2629082789724</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655735</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655735</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>727.1135926675562</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y19" t="n">
-        <v>727.1135926675562</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,19 +5741,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018224</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>668.5656656016677</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>1071.006709575438</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>850.2141304319074</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,7 +5981,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,49 +5990,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018224</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028587</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550793</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181187</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.6725486937863</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>324.6725486937863</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>174.5559092814506</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>174.5559092814506</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>174.5559092814506</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>174.5559092814506</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655736</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>727.1135926675562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.3210135240261</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.532429954221</v>
+        <v>656.5190452905605</v>
       </c>
       <c r="C31" t="n">
-        <v>360.0624171264617</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264617</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264617</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264617</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1712.787274970146</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1479.419501465075</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1280.495878540559</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818954</v>
+        <v>1046.839573784969</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652489</v>
+        <v>874.6108881683227</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030897</v>
+        <v>709.5791743061634</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7084,16 +7084,16 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7114,19 +7114,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010318</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7549,31 +7549,31 @@
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735874</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>171.261599571731</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>198.6354591351692</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.46831781370142</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>9.127718692831394</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>35.39588157167638</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>20.28388681377233</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>27.14001964452177</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.3938331833856</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>200.335317316623</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>72.34839872458326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>72.0991958279331</v>
       </c>
       <c r="C31" t="n">
-        <v>33.36825177058911</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-2.577937990865371e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1109139.243196448</v>
+        <v>1109139.243196449</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1109139.243196448</v>
+        <v>1109139.243196449</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1109139.243196448</v>
+        <v>1109139.243196449</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524997</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524996</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="F2" t="n">
+        <v>273720.3418163962</v>
+      </c>
+      <c r="G2" t="n">
         <v>273720.3418163964</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>273720.3418163963</v>
-      </c>
-      <c r="H2" t="n">
-        <v>273720.3418163962</v>
       </c>
       <c r="I2" t="n">
         <v>273720.3418163962</v>
@@ -26341,19 +26341,19 @@
         <v>284775.4961416893</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="M2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="N2" t="n">
+        <v>287364.6194524989</v>
+      </c>
+      <c r="O2" t="n">
         <v>287364.6194524993</v>
       </c>
-      <c r="N2" t="n">
-        <v>287364.6194524994</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>287364.6194524988</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086677</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563568</v>
+        <v>33210.29213563562</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542237.296076677</v>
+        <v>-542237.2960766769</v>
       </c>
       <c r="C6" t="n">
-        <v>47730.58313786742</v>
+        <v>47730.58313786748</v>
       </c>
       <c r="D6" t="n">
-        <v>47730.58313786742</v>
+        <v>47730.58313786719</v>
       </c>
       <c r="E6" t="n">
-        <v>-358472.6902306556</v>
+        <v>-358570.1493566278</v>
       </c>
       <c r="F6" t="n">
-        <v>166687.3462462407</v>
+        <v>166589.8871202683</v>
       </c>
       <c r="G6" t="n">
-        <v>166687.3462462406</v>
+        <v>166589.8871202685</v>
       </c>
       <c r="H6" t="n">
-        <v>166687.3462462405</v>
+        <v>166589.8871202685</v>
       </c>
       <c r="I6" t="n">
-        <v>166687.3462462404</v>
+        <v>166589.8871202683</v>
       </c>
       <c r="J6" t="n">
-        <v>-9735.872946352261</v>
+        <v>-9833.332072324483</v>
       </c>
       <c r="K6" t="n">
-        <v>110774.390172985</v>
+        <v>110755.8964350509</v>
       </c>
       <c r="L6" t="n">
-        <v>141842.1499688474</v>
+        <v>141842.1499688473</v>
       </c>
       <c r="M6" t="n">
-        <v>17384.04153587711</v>
+        <v>17384.04153587706</v>
       </c>
       <c r="N6" t="n">
-        <v>152185.0567697144</v>
+        <v>152185.0567697139</v>
       </c>
       <c r="O6" t="n">
-        <v>152185.0567697138</v>
+        <v>152185.0567697143</v>
       </c>
       <c r="P6" t="n">
-        <v>108022.4514668685</v>
+        <v>108022.4514668682</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,43 +26735,43 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91.73747630287011</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,16 +27433,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>288.4682683912287</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>33.48052967248469</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>112.647326165955</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>60.65057004123008</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>133.2586948811767</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>35.43826180874015</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>88.89177771830441</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>16.4396305244174</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>84.97571041169573</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>55.0459618805605</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.677937203841219e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799263</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296117</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36762,16 +36762,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412273</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043196</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37871,13 +37871,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
